--- a/doc/05_ファイル構成一覧表_C5.xlsx
+++ b/doc/05_ファイル構成一覧表_C5.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\その日のダウンロード\0601_6月主な教材\6月配布物\6月配布物\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{421BCCCA-DCE1-40A8-AA51-B51F4C0B2E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1BDC609-EF30-4F78-B9A4-5958BDCEF394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -92,15 +92,6 @@
     <t>Register.jsp</t>
   </si>
   <si>
-    <t>Long_checklist.jsp</t>
-  </si>
-  <si>
-    <t>Short_checklist.jsp</t>
-  </si>
-  <si>
-    <t>mypage.jsp</t>
-  </si>
-  <si>
     <t>Personal.jsp</t>
   </si>
   <si>
@@ -140,33 +131,18 @@
     <t>Java</t>
   </si>
   <si>
-    <t>First_long_transDAO.java</t>
-  </si>
-  <si>
     <t>初期、長期チェックリスト入力用DAO</t>
   </si>
   <si>
-    <t>First_long_masterDAO.java</t>
-  </si>
-  <si>
     <t>初期、長期チェックリスト表示用DAO</t>
   </si>
   <si>
-    <t>Short_transDAO.java</t>
-  </si>
-  <si>
     <t>短期チェックリスト入力用DAO</t>
   </si>
   <si>
-    <t>Short_masterDAO.java</t>
-  </si>
-  <si>
     <t>短期チェックリスト表示用DAO</t>
   </si>
   <si>
-    <t>Face_imageDAO.java</t>
-  </si>
-  <si>
     <t>顔写真表示用DAO</t>
   </si>
   <si>
@@ -182,15 +158,9 @@
     <t>マイページ表示用DAO</t>
   </si>
   <si>
-    <t>Health_imageDAO.java</t>
-  </si>
-  <si>
     <t>健康診断用紙挿入、入力用DAO</t>
   </si>
   <si>
-    <t>Body_imageDAO.java</t>
-  </si>
-  <si>
     <t>健康状態表示用DAO</t>
   </si>
   <si>
@@ -203,15 +173,9 @@
     <t>ユーザーデータ操作モデル</t>
   </si>
   <si>
-    <t>First_long_master.java</t>
-  </si>
-  <si>
     <t>初期、長期チェックリスト表示用データ操作モデル</t>
   </si>
   <si>
-    <t>Short_master.java</t>
-  </si>
-  <si>
     <t>短期チェックリスト表示用データ操作モデル</t>
   </si>
   <si>
@@ -221,9 +185,6 @@
     <t>マイページ入力データ操作モデル</t>
   </si>
   <si>
-    <t>Health_image.java</t>
-  </si>
-  <si>
     <t>健康診断用紙挿入用モデル</t>
   </si>
   <si>
@@ -245,27 +206,15 @@
     <t>卒業ページ表示用データ操作モデル</t>
   </si>
   <si>
-    <t>Body_image.java</t>
-  </si>
-  <si>
     <t>アバター画像表示用データ操作モデル</t>
   </si>
   <si>
-    <t>Avater_head.java</t>
-  </si>
-  <si>
     <t>顔写真表示用データ操作モデル</t>
   </si>
   <si>
-    <t>First_long_trans.java</t>
-  </si>
-  <si>
     <t>初期、長期チェックリスト入力用操作モデル</t>
   </si>
   <si>
-    <t>Short_trans.java</t>
-  </si>
-  <si>
     <t>短期チェックリスト入力用操作モデル</t>
   </si>
   <si>
@@ -320,124 +269,197 @@
     <t>新規登録画面用</t>
   </si>
   <si>
-    <t>First_checktestServlet.java</t>
-  </si>
-  <si>
     <t>初期チェックテスト画面</t>
   </si>
   <si>
-    <t>Long_checklistServlet.java</t>
-  </si>
-  <si>
     <t>長期目標チェックリスト画面</t>
   </si>
   <si>
-    <t>Short_checklistServlet.java</t>
-  </si>
-  <si>
     <t>短期目標チェックリスト画面</t>
   </si>
   <si>
-    <t>mypagneServlet.java</t>
-  </si>
-  <si>
     <t>マイページ画面</t>
   </si>
   <si>
+    <t>パーソナルデータ更新画面</t>
+  </si>
+  <si>
+    <t>BacklogServlet.java</t>
+  </si>
+  <si>
+    <t>過去データ閲覧画面</t>
+  </si>
+  <si>
+    <t>ResultServlet.java</t>
+  </si>
+  <si>
+    <t>達成評価ページ</t>
+  </si>
+  <si>
+    <t>GraduateServlet.java</t>
+  </si>
+  <si>
+    <t>卒業ページ</t>
+  </si>
+  <si>
+    <t>AnimationServlet.java</t>
+  </si>
+  <si>
+    <t>アニメーションページ</t>
+  </si>
+  <si>
+    <t>JavaScript</t>
+  </si>
+  <si>
+    <t>WebContent/js</t>
+  </si>
+  <si>
+    <t>ログイン画面用js</t>
+  </si>
+  <si>
+    <t>一覧表画面用js</t>
+  </si>
+  <si>
+    <t>マイページ画面用js</t>
+  </si>
+  <si>
+    <t>パーソナルデータ更新画面用js</t>
+  </si>
+  <si>
+    <t>過去データ閲覧画面用js</t>
+  </si>
+  <si>
+    <t>卒業画面用js</t>
+  </si>
+  <si>
+    <t>アニメーション画面用js</t>
+  </si>
+  <si>
+    <t>css</t>
+  </si>
+  <si>
+    <t>WebContent/css</t>
+  </si>
+  <si>
+    <t>ログイン画面用css</t>
+  </si>
+  <si>
+    <t>新規登録画面用css</t>
+  </si>
+  <si>
+    <t>一覧表画面用css</t>
+  </si>
+  <si>
+    <t>マイページ画面用css</t>
+  </si>
+  <si>
+    <t>パーソナルデータ更新画面用css</t>
+  </si>
+  <si>
+    <t>過去データ閲覧画面用css</t>
+  </si>
+  <si>
+    <t>達成評価画面用css</t>
+  </si>
+  <si>
+    <t>卒業画面用css</t>
+  </si>
+  <si>
+    <t>アニメーション画面用css</t>
+  </si>
+  <si>
+    <t>共通画面用css</t>
+  </si>
+  <si>
+    <t>FirstLongTransDAO.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FirstLongMasterDAO.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ShortTransDAO.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ShortMasterDAO.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FaceImageDAO.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HealthImageDAO.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BodyImageDAO.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FirstLongMaster.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ShortMaster.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HealthImage.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BodyImage.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AvaterHead.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FirstLongTrans.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ShortTrans.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FirstChecktest.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LongChecklist.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ShortChecklist.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mypage.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FirstChecktestServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LongChecklistServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ShortChecklistServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MypagneServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>PersonalServlet.java</t>
-  </si>
-  <si>
-    <t>パーソナルデータ更新画面</t>
-  </si>
-  <si>
-    <t>BacklogServlet.java</t>
-  </si>
-  <si>
-    <t>過去データ閲覧画面</t>
-  </si>
-  <si>
-    <t>ResultServlet.java</t>
-  </si>
-  <si>
-    <t>達成評価ページ</t>
-  </si>
-  <si>
-    <t>GraduateServlet.java</t>
-  </si>
-  <si>
-    <t>卒業ページ</t>
-  </si>
-  <si>
-    <t>AnimationServlet.java</t>
-  </si>
-  <si>
-    <t>アニメーションページ</t>
-  </si>
-  <si>
-    <t>JavaScript</t>
-  </si>
-  <si>
-    <t>WebContent/js</t>
-  </si>
-  <si>
-    <t>ログイン画面用js</t>
-  </si>
-  <si>
-    <t>一覧表画面用js</t>
-  </si>
-  <si>
-    <t>マイページ画面用js</t>
-  </si>
-  <si>
-    <t>パーソナルデータ更新画面用js</t>
-  </si>
-  <si>
-    <t>過去データ閲覧画面用js</t>
-  </si>
-  <si>
-    <t>卒業画面用js</t>
-  </si>
-  <si>
-    <t>アニメーション画面用js</t>
-  </si>
-  <si>
-    <t>css</t>
-  </si>
-  <si>
-    <t>WebContent/css</t>
-  </si>
-  <si>
-    <t>ログイン画面用css</t>
-  </si>
-  <si>
-    <t>新規登録画面用css</t>
-  </si>
-  <si>
-    <t>一覧表画面用css</t>
-  </si>
-  <si>
-    <t>マイページ画面用css</t>
-  </si>
-  <si>
-    <t>パーソナルデータ更新画面用css</t>
-  </si>
-  <si>
-    <t>過去データ閲覧画面用css</t>
-  </si>
-  <si>
-    <t>達成評価画面用css</t>
-  </si>
-  <si>
-    <t>卒業画面用css</t>
-  </si>
-  <si>
-    <t>アニメーション画面用css</t>
-  </si>
-  <si>
-    <t>共通画面用css</t>
-  </si>
-  <si>
-    <t>First_checktest.jsp</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -866,8 +888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -881,22 +903,22 @@
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
@@ -904,16 +926,16 @@
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>35</v>
+        <v>112</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G3" s="1"/>
     </row>
@@ -922,16 +944,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>37</v>
+        <v>113</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G4" s="1"/>
     </row>
@@ -940,34 +962,34 @@
         <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>40</v>
-      </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6" s="4">
         <v>4</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G6" s="1"/>
     </row>
@@ -976,16 +998,16 @@
         <v>5</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G7" s="1"/>
     </row>
@@ -994,16 +1016,16 @@
         <v>6</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G8" s="1"/>
     </row>
@@ -1012,34 +1034,34 @@
         <v>7</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B10" s="4">
         <v>8</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G10" s="1"/>
     </row>
@@ -1048,16 +1070,16 @@
         <v>9</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>51</v>
+        <v>118</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G11" s="1"/>
     </row>
@@ -1066,34 +1088,34 @@
         <v>10</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B13" s="4">
         <v>11</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>56</v>
+        <v>119</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="G13" s="1"/>
     </row>
@@ -1102,16 +1124,16 @@
         <v>12</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="G14" s="1"/>
     </row>
@@ -1120,16 +1142,16 @@
         <v>13</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="G15" s="1"/>
     </row>
@@ -1138,16 +1160,16 @@
         <v>14</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>62</v>
+        <v>121</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="G16" s="1"/>
     </row>
@@ -1156,16 +1178,16 @@
         <v>15</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="G17" s="1"/>
     </row>
@@ -1174,16 +1196,16 @@
         <v>16</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D18" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="F18" s="5" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="G18" s="1"/>
     </row>
@@ -1192,16 +1214,16 @@
         <v>17</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="G19" s="1"/>
     </row>
@@ -1210,16 +1232,16 @@
         <v>18</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>70</v>
+        <v>122</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="G20" s="1"/>
     </row>
@@ -1228,16 +1250,16 @@
         <v>19</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>72</v>
+        <v>123</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="G21" s="1"/>
     </row>
@@ -1246,16 +1268,16 @@
         <v>20</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="G22" s="1"/>
     </row>
@@ -1264,16 +1286,16 @@
         <v>21</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>76</v>
+        <v>125</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="G23" s="1"/>
     </row>
@@ -1282,16 +1304,16 @@
         <v>22</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="G24" s="1"/>
     </row>
@@ -1300,16 +1322,16 @@
         <v>23</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="G25" s="1"/>
     </row>
@@ -1318,16 +1340,16 @@
         <v>24</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="G26" s="1"/>
     </row>
@@ -1336,16 +1358,16 @@
         <v>25</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>19</v>
+        <v>127</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="G27" s="1"/>
     </row>
@@ -1354,16 +1376,16 @@
         <v>26</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>20</v>
+        <v>128</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="G28" s="1"/>
     </row>
@@ -1372,16 +1394,16 @@
         <v>27</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>21</v>
+        <v>129</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="G29" s="1"/>
     </row>
@@ -1390,16 +1412,16 @@
         <v>28</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="G30" s="1"/>
     </row>
@@ -1408,16 +1430,16 @@
         <v>29</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="G31" s="1"/>
     </row>
@@ -1426,16 +1448,16 @@
         <v>30</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="G32" s="1"/>
     </row>
@@ -1444,16 +1466,16 @@
         <v>31</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="G33" s="1"/>
     </row>
@@ -1462,16 +1484,16 @@
         <v>32</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="G34" s="1"/>
     </row>
@@ -1480,16 +1502,16 @@
         <v>33</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="G35" s="1"/>
     </row>
@@ -1498,16 +1520,16 @@
         <v>34</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="G36" s="1"/>
     </row>
@@ -1516,16 +1538,16 @@
         <v>35</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="G37" s="1"/>
     </row>
@@ -1534,16 +1556,16 @@
         <v>36</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>97</v>
+        <v>131</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="G38" s="1"/>
     </row>
@@ -1552,16 +1574,16 @@
         <v>37</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="G39" s="1"/>
     </row>
@@ -1570,16 +1592,16 @@
         <v>38</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="G40" s="1"/>
     </row>
@@ -1588,16 +1610,16 @@
         <v>39</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="G41" s="1"/>
     </row>
@@ -1606,16 +1628,16 @@
         <v>40</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="G42" s="1"/>
     </row>
@@ -1624,16 +1646,16 @@
         <v>41</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="G43" s="1"/>
     </row>
@@ -1642,16 +1664,16 @@
         <v>42</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="G44" s="1"/>
     </row>
@@ -1660,16 +1682,16 @@
         <v>43</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D45" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F45" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>112</v>
       </c>
       <c r="G45" s="1"/>
     </row>
@@ -1678,16 +1700,16 @@
         <v>44</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="G46" s="1"/>
     </row>
@@ -1696,16 +1718,16 @@
         <v>45</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="G47" s="1"/>
     </row>
@@ -1714,16 +1736,16 @@
         <v>46</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="G48" s="1"/>
     </row>
@@ -1732,16 +1754,16 @@
         <v>47</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="G49" s="1"/>
     </row>
@@ -1750,16 +1772,16 @@
         <v>48</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="G50" s="1"/>
     </row>
@@ -1768,16 +1790,16 @@
         <v>49</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="G51" s="1"/>
     </row>
@@ -1786,16 +1808,16 @@
         <v>50</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="G52" s="1"/>
     </row>
@@ -1804,16 +1826,16 @@
         <v>51</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="G53" s="1"/>
     </row>
@@ -1822,16 +1844,16 @@
         <v>52</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="G54" s="1"/>
     </row>
@@ -1840,16 +1862,16 @@
         <v>53</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="G55" s="1"/>
     </row>
@@ -1858,16 +1880,16 @@
         <v>54</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="G56" s="1"/>
     </row>
@@ -1876,16 +1898,16 @@
         <v>55</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="G57" s="1"/>
     </row>
@@ -1894,16 +1916,16 @@
         <v>56</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="G58" s="1"/>
     </row>
@@ -1912,16 +1934,16 @@
         <v>57</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="G59" s="1"/>
     </row>
@@ -1930,16 +1952,16 @@
         <v>58</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="G60" s="1"/>
     </row>
@@ -1948,16 +1970,16 @@
         <v>59</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="G61" s="1"/>
     </row>
@@ -1966,16 +1988,16 @@
         <v>60</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="G62" s="1"/>
     </row>
@@ -1987,18 +2009,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2173,6 +2195,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -2185,14 +2215,6 @@
     <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
     <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/doc/05_ファイル構成一覧表_C5.xlsx
+++ b/doc/05_ファイル構成一覧表_C5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1BDC609-EF30-4F78-B9A4-5958BDCEF394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{863E7A78-82A8-409B-A8CC-222F335958C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="141">
   <si>
     <t>login.css</t>
   </si>
@@ -185,9 +185,6 @@
     <t>マイページ入力データ操作モデル</t>
   </si>
   <si>
-    <t>健康診断用紙挿入用モデル</t>
-  </si>
-  <si>
     <t>Backlog.java</t>
   </si>
   <si>
@@ -460,6 +457,55 @@
   </si>
   <si>
     <t>PersonalServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>健康診断用紙挿入データ用モデル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>兼平</t>
+    <rPh sb="0" eb="2">
+      <t>カネヒラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>金指</t>
+    <rPh sb="0" eb="2">
+      <t>キンユビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>安部</t>
+    <rPh sb="0" eb="2">
+      <t>アベ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小島</t>
+    <rPh sb="0" eb="2">
+      <t>コジマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>佐分</t>
+    <rPh sb="0" eb="1">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>プン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全員</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンイン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -467,7 +513,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -499,6 +545,20 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="4">
@@ -550,7 +610,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -570,6 +630,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -888,15 +954,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.25" customWidth="1"/>
     <col min="6" max="6" width="58.875" customWidth="1"/>
     <col min="7" max="7" width="16.125" customWidth="1"/>
   </cols>
@@ -932,12 +998,14 @@
         <v>24</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="G3" s="8" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="4" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B4" s="4">
@@ -950,12 +1018,14 @@
         <v>24</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="G4" s="8" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5" s="4">
@@ -968,12 +1038,14 @@
         <v>24</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="1"/>
+      <c r="G5" s="8" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6" s="4">
@@ -986,12 +1058,14 @@
         <v>24</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="G6" s="8" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B7" s="4">
@@ -1004,12 +1078,14 @@
         <v>24</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="1"/>
+      <c r="G7" s="8" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B8" s="4">
@@ -1027,7 +1103,9 @@
       <c r="F8" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="1"/>
+      <c r="G8" s="8" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B9" s="4">
@@ -1045,7 +1123,9 @@
       <c r="F9" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="G9" s="8" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B10" s="4">
@@ -1058,12 +1138,14 @@
         <v>24</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="1"/>
+      <c r="G10" s="8" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B11" s="4">
@@ -1076,12 +1158,14 @@
         <v>24</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G11" s="1"/>
+      <c r="G11" s="8" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B12" s="4">
@@ -1099,7 +1183,9 @@
       <c r="F12" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G12" s="1"/>
+      <c r="G12" s="8" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B13" s="4">
@@ -1112,12 +1198,14 @@
         <v>43</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G13" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B14" s="4">
@@ -1130,12 +1218,14 @@
         <v>43</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G14" s="1"/>
+        <v>46</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B15" s="4">
@@ -1148,12 +1238,14 @@
         <v>43</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G15" s="1"/>
+        <v>59</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B16" s="4">
@@ -1166,12 +1258,14 @@
         <v>43</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G16" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" s="4">
@@ -1184,12 +1278,14 @@
         <v>43</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G17" s="1"/>
+        <v>49</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" s="4">
@@ -1202,12 +1298,14 @@
         <v>43</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G18" s="1"/>
+        <v>120</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19" s="4">
@@ -1220,12 +1318,14 @@
         <v>43</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G19" s="1"/>
+        <v>51</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20" s="4">
@@ -1238,12 +1338,14 @@
         <v>43</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>122</v>
+        <v>52</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="G20" s="1"/>
+        <v>53</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B21" s="4">
@@ -1256,12 +1358,14 @@
         <v>43</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>123</v>
+        <v>54</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="G21" s="1"/>
+        <v>55</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B22" s="4">
@@ -1274,12 +1378,14 @@
         <v>43</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G22" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B23" s="4">
@@ -1292,12 +1398,14 @@
         <v>43</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G23" s="1"/>
+        <v>57</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B24" s="4">
@@ -1307,15 +1415,17 @@
         <v>31</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="G24" s="1"/>
+        <v>61</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B25" s="4">
@@ -1325,15 +1435,17 @@
         <v>31</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G25" s="1"/>
+        <v>62</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B26" s="4">
@@ -1343,15 +1455,17 @@
         <v>31</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G26" s="1"/>
+        <v>63</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B27" s="4">
@@ -1361,15 +1475,17 @@
         <v>31</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G27" s="1"/>
+        <v>64</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B28" s="4">
@@ -1379,15 +1495,17 @@
         <v>31</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G28" s="1"/>
+        <v>65</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B29" s="4">
@@ -1397,15 +1515,17 @@
         <v>31</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="G29" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B30" s="4">
@@ -1415,15 +1535,17 @@
         <v>31</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G30" s="1"/>
+        <v>67</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B31" s="4">
@@ -1433,15 +1555,17 @@
         <v>31</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="G31" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B32" s="4">
@@ -1451,15 +1575,17 @@
         <v>31</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="G32" s="1"/>
+        <v>69</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B33" s="4">
@@ -1469,15 +1595,17 @@
         <v>31</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="G33" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B34" s="4">
@@ -1487,15 +1615,17 @@
         <v>31</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G34" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B35" s="4">
@@ -1505,15 +1635,17 @@
         <v>31</v>
       </c>
       <c r="D35" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="F35" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F35" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="G35" s="1"/>
+      <c r="G35" s="8" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B36" s="4">
@@ -1523,15 +1655,17 @@
         <v>31</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E36" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F36" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="F36" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G36" s="1"/>
+      <c r="G36" s="8" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="37" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B37" s="4">
@@ -1541,15 +1675,17 @@
         <v>31</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="G37" s="1"/>
+        <v>77</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="38" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B38" s="4">
@@ -1559,15 +1695,17 @@
         <v>31</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="G38" s="1"/>
+        <v>78</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="39" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B39" s="4">
@@ -1577,15 +1715,17 @@
         <v>31</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="G39" s="1"/>
+        <v>79</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B40" s="4">
@@ -1595,15 +1735,17 @@
         <v>31</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G40" s="1"/>
+        <v>80</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B41" s="4">
@@ -1613,15 +1755,17 @@
         <v>31</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="G41" s="1"/>
+        <v>81</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B42" s="4">
@@ -1631,15 +1775,17 @@
         <v>31</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E42" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="F42" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="G42" s="1"/>
+      <c r="G42" s="8" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B43" s="4">
@@ -1649,15 +1795,17 @@
         <v>31</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E43" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F43" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="G43" s="1"/>
+      <c r="G43" s="8" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B44" s="4">
@@ -1667,15 +1815,17 @@
         <v>31</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E44" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="F44" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="G44" s="1"/>
+      <c r="G44" s="8" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B45" s="4">
@@ -1685,321 +1835,357 @@
         <v>31</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E45" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F45" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="G45" s="1"/>
+      <c r="G45" s="8" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B46" s="4">
         <v>44</v>
       </c>
       <c r="C46" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D46" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>92</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="G46" s="1"/>
+        <v>92</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B47" s="4">
         <v>45</v>
       </c>
       <c r="C47" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D47" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>92</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="G47" s="1"/>
+        <v>93</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B48" s="4">
         <v>46</v>
       </c>
       <c r="C48" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D48" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>92</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="G48" s="1"/>
+        <v>94</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B49" s="4">
         <v>47</v>
       </c>
       <c r="C49" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D49" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>92</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="G49" s="1"/>
+        <v>95</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B50" s="4">
         <v>48</v>
       </c>
       <c r="C50" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D50" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>92</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="G50" s="1"/>
+        <v>96</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B51" s="4">
         <v>49</v>
       </c>
       <c r="C51" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D51" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>92</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="G51" s="1"/>
+        <v>97</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B52" s="4">
         <v>50</v>
       </c>
       <c r="C52" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D52" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>92</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="G52" s="1"/>
+        <v>98</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B53" s="4">
         <v>51</v>
       </c>
       <c r="C53" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D53" s="5" t="s">
         <v>100</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>101</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="G53" s="1"/>
+        <v>101</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B54" s="4">
         <v>52</v>
       </c>
       <c r="C54" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D54" s="5" t="s">
         <v>100</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>101</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="G54" s="1"/>
+        <v>102</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B55" s="4">
         <v>53</v>
       </c>
       <c r="C55" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D55" s="5" t="s">
         <v>100</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>101</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="G55" s="1"/>
+        <v>103</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B56" s="4">
         <v>54</v>
       </c>
       <c r="C56" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D56" s="5" t="s">
         <v>100</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>101</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="G56" s="1"/>
+        <v>104</v>
+      </c>
+      <c r="G56" s="8" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B57" s="4">
         <v>55</v>
       </c>
       <c r="C57" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D57" s="5" t="s">
         <v>100</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>101</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="G57" s="1"/>
+        <v>105</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B58" s="4">
         <v>56</v>
       </c>
       <c r="C58" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D58" s="5" t="s">
         <v>100</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>101</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="G58" s="1"/>
+        <v>106</v>
+      </c>
+      <c r="G58" s="8" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B59" s="4">
         <v>57</v>
       </c>
       <c r="C59" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D59" s="5" t="s">
         <v>100</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>101</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="G59" s="1"/>
+        <v>107</v>
+      </c>
+      <c r="G59" s="8" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B60" s="4">
         <v>58</v>
       </c>
       <c r="C60" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D60" s="5" t="s">
         <v>100</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>101</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="G60" s="1"/>
+        <v>108</v>
+      </c>
+      <c r="G60" s="8" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B61" s="4">
         <v>59</v>
       </c>
       <c r="C61" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D61" s="5" t="s">
         <v>100</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>101</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="G61" s="1"/>
+        <v>109</v>
+      </c>
+      <c r="G61" s="8" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B62" s="4">
         <v>60</v>
       </c>
       <c r="C62" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D62" s="5" t="s">
         <v>100</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>101</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="G62" s="1"/>
+        <v>110</v>
+      </c>
+      <c r="G62" s="8" t="s">
+        <v>140</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2009,18 +2195,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2195,14 +2381,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -2215,6 +2393,14 @@
     <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
     <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/doc/05_ファイル構成一覧表_C5.xlsx
+++ b/doc/05_ファイル構成一覧表_C5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{863E7A78-82A8-409B-A8CC-222F335958C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1029482-B750-4033-B02F-6313F4A2464F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="840" yWindow="1980" windowWidth="18060" windowHeight="9150" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -254,9 +254,6 @@
     <t>servlet</t>
   </si>
   <si>
-    <t>loginServlet.java</t>
-  </si>
-  <si>
     <t>ログイン画面用</t>
   </si>
   <si>
@@ -506,6 +503,10 @@
     <rPh sb="0" eb="2">
       <t>ゼンイン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LoginServlet.java</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -954,8 +955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="E16" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -987,7 +988,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3" s="4">
         <v>1</v>
       </c>
@@ -998,16 +999,16 @@
         <v>24</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>32</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4" s="4">
         <v>2</v>
       </c>
@@ -1018,13 +1019,13 @@
         <v>24</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>33</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
@@ -1038,13 +1039,13 @@
         <v>24</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>34</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.2">
@@ -1058,13 +1059,13 @@
         <v>24</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>35</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
@@ -1078,13 +1079,13 @@
         <v>24</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
@@ -1104,7 +1105,7 @@
         <v>38</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
@@ -1124,7 +1125,7 @@
         <v>40</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
@@ -1138,13 +1139,13 @@
         <v>24</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>41</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.2">
@@ -1158,13 +1159,13 @@
         <v>24</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>42</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.2">
@@ -1184,7 +1185,7 @@
         <v>45</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.2">
@@ -1198,13 +1199,13 @@
         <v>43</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>58</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.2">
@@ -1218,13 +1219,13 @@
         <v>43</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>46</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.2">
@@ -1238,13 +1239,13 @@
         <v>43</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>59</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.2">
@@ -1258,13 +1259,13 @@
         <v>43</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>47</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.2">
@@ -1284,7 +1285,7 @@
         <v>49</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
@@ -1298,13 +1299,13 @@
         <v>43</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.2">
@@ -1324,7 +1325,7 @@
         <v>51</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.2">
@@ -1344,7 +1345,7 @@
         <v>53</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.2">
@@ -1364,7 +1365,7 @@
         <v>55</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.2">
@@ -1378,13 +1379,13 @@
         <v>43</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>56</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.2">
@@ -1398,13 +1399,13 @@
         <v>43</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>57</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.2">
@@ -1424,7 +1425,7 @@
         <v>61</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.2">
@@ -1444,7 +1445,7 @@
         <v>62</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.2">
@@ -1458,13 +1459,13 @@
         <v>60</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>63</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.2">
@@ -1478,13 +1479,13 @@
         <v>60</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>64</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.2">
@@ -1498,13 +1499,13 @@
         <v>60</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>65</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.2">
@@ -1518,13 +1519,13 @@
         <v>60</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>66</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.2">
@@ -1544,7 +1545,7 @@
         <v>67</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.2">
@@ -1564,7 +1565,7 @@
         <v>68</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.2">
@@ -1584,7 +1585,7 @@
         <v>69</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.2">
@@ -1604,7 +1605,7 @@
         <v>70</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.2">
@@ -1624,7 +1625,7 @@
         <v>71</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.2">
@@ -1638,13 +1639,13 @@
         <v>72</v>
       </c>
       <c r="E35" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F35" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F35" s="5" t="s">
-        <v>74</v>
-      </c>
       <c r="G35" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.2">
@@ -1658,16 +1659,16 @@
         <v>72</v>
       </c>
       <c r="E36" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F36" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F36" s="5" t="s">
-        <v>76</v>
-      </c>
       <c r="G36" s="8" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B37" s="4">
         <v>35</v>
       </c>
@@ -1678,16 +1679,16 @@
         <v>72</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B38" s="4">
         <v>36</v>
       </c>
@@ -1698,16 +1699,16 @@
         <v>72</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B39" s="4">
         <v>37</v>
       </c>
@@ -1718,13 +1719,13 @@
         <v>72</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.2">
@@ -1738,13 +1739,13 @@
         <v>72</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.2">
@@ -1758,13 +1759,13 @@
         <v>72</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.2">
@@ -1778,13 +1779,13 @@
         <v>72</v>
       </c>
       <c r="E42" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F42" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="F42" s="5" t="s">
-        <v>83</v>
-      </c>
       <c r="G42" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.2">
@@ -1798,13 +1799,13 @@
         <v>72</v>
       </c>
       <c r="E43" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F43" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F43" s="5" t="s">
-        <v>85</v>
-      </c>
       <c r="G43" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.2">
@@ -1818,13 +1819,13 @@
         <v>72</v>
       </c>
       <c r="E44" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F44" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="F44" s="5" t="s">
-        <v>87</v>
-      </c>
       <c r="G44" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.2">
@@ -1838,13 +1839,13 @@
         <v>72</v>
       </c>
       <c r="E45" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F45" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="F45" s="5" t="s">
-        <v>89</v>
-      </c>
       <c r="G45" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.2">
@@ -1852,19 +1853,19 @@
         <v>44</v>
       </c>
       <c r="C46" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D46" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>91</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.2">
@@ -1872,19 +1873,19 @@
         <v>45</v>
       </c>
       <c r="C47" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D47" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>91</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.2">
@@ -1892,19 +1893,19 @@
         <v>46</v>
       </c>
       <c r="C48" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D48" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>91</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.2">
@@ -1912,19 +1913,19 @@
         <v>47</v>
       </c>
       <c r="C49" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D49" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>91</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.2">
@@ -1932,19 +1933,19 @@
         <v>48</v>
       </c>
       <c r="C50" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D50" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>91</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.2">
@@ -1952,19 +1953,19 @@
         <v>49</v>
       </c>
       <c r="C51" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D51" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>91</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.2">
@@ -1972,19 +1973,19 @@
         <v>50</v>
       </c>
       <c r="C52" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D52" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>91</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.2">
@@ -1992,19 +1993,19 @@
         <v>51</v>
       </c>
       <c r="C53" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D53" s="5" t="s">
         <v>99</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>100</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.2">
@@ -2012,19 +2013,19 @@
         <v>52</v>
       </c>
       <c r="C54" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D54" s="5" t="s">
         <v>99</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>100</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.2">
@@ -2032,19 +2033,19 @@
         <v>53</v>
       </c>
       <c r="C55" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D55" s="5" t="s">
         <v>99</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>100</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.2">
@@ -2052,19 +2053,19 @@
         <v>54</v>
       </c>
       <c r="C56" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D56" s="5" t="s">
         <v>99</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>100</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.2">
@@ -2072,19 +2073,19 @@
         <v>55</v>
       </c>
       <c r="C57" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D57" s="5" t="s">
         <v>99</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>100</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.2">
@@ -2092,19 +2093,19 @@
         <v>56</v>
       </c>
       <c r="C58" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D58" s="5" t="s">
         <v>99</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>100</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G58" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.2">
@@ -2112,19 +2113,19 @@
         <v>57</v>
       </c>
       <c r="C59" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D59" s="5" t="s">
         <v>99</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>100</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.2">
@@ -2132,19 +2133,19 @@
         <v>58</v>
       </c>
       <c r="C60" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D60" s="5" t="s">
         <v>99</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>100</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.2">
@@ -2152,19 +2153,19 @@
         <v>59</v>
       </c>
       <c r="C61" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D61" s="5" t="s">
         <v>99</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>100</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.2">
@@ -2172,19 +2173,19 @@
         <v>60</v>
       </c>
       <c r="C62" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D62" s="5" t="s">
         <v>99</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>100</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -2195,18 +2196,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2381,6 +2382,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -2393,14 +2402,6 @@
     <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
     <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/doc/05_ファイル構成一覧表_C5.xlsx
+++ b/doc/05_ファイル構成一覧表_C5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1029482-B750-4033-B02F-6313F4A2464F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C90DE504-9A46-4100-A5C7-ABCFD8A17614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="1980" windowWidth="18060" windowHeight="9150" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="630" yWindow="825" windowWidth="15495" windowHeight="9720" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="144">
   <si>
     <t>login.css</t>
   </si>
@@ -507,6 +507,18 @@
   </si>
   <si>
     <t>LoginServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>register.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LogoutServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>servlet</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -582,7 +594,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -605,13 +617,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -637,6 +669,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -953,10 +991,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:G62"/>
+  <dimension ref="B2:G64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E16" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2188,6 +2226,19 @@
         <v>139</v>
       </c>
     </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E63" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D64" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2196,18 +2247,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2382,14 +2433,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -2402,6 +2445,14 @@
     <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
     <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
